--- a/biology/Zoologie/Dryophytes_andersonii/Dryophytes_andersonii.xlsx
+++ b/biology/Zoologie/Dryophytes_andersonii/Dryophytes_andersonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryophytes andersonii est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryophytes andersonii est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre de manière discontinue, dans trois zones disjointes, dans les États de l'Est du pays :
 au New Jersey ;
 dans l'est de la Caroline du Nord et l'Est de la Caroline du Sud ;
 dans l'ouest de la Floride et le Sud de l'Alabama.
-Sa répartition actuelle pourrait être les vestiges d'une répartition beaucoup plus étendue dans le passé[2].
+Sa répartition actuelle pourrait être les vestiges d'une répartition beaucoup plus étendue dans le passé.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence à son lieu de découverte, le comté d'Anderson[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence à son lieu de découverte, le comté d'Anderson.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baird, 1854 : Descriptions of new genera and species of North American Frogs. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 7, p. 59–62 (texte intégral).</t>
         </is>
